--- a/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
+++ b/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11775" windowHeight="4485" tabRatio="789" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11777" windowHeight="4483" tabRatio="789" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NorthAIC" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
@@ -59,15 +59,6 @@
     <t>logSE</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Number of drifts</t>
-  </si>
-  <si>
-    <t>Number of positive drifts</t>
-  </si>
-  <si>
     <t>Data from SQL filtered for missing data</t>
   </si>
   <si>
@@ -141,6 +132,9 @@
   </si>
   <si>
     <t>\textbf{5071}</t>
+  </si>
+  <si>
+    <t>Filter to drifts with &gt;=20% groundfish and recheck reefs</t>
   </si>
 </sst>
 </file>
@@ -483,9 +477,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -507,9 +501,9 @@
         <v>17531</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>14120</v>
@@ -518,9 +512,9 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>13953</v>
@@ -529,9 +523,9 @@
         <v>17025</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>14126</v>
@@ -540,9 +534,9 @@
         <v>17293</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>13951</v>
@@ -551,15 +545,15 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -571,13 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -599,9 +593,9 @@
         <v>5490</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2799</v>
@@ -610,9 +604,9 @@
         <v>5487</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2744</v>
@@ -621,9 +615,9 @@
         <v>5159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2653</v>
@@ -632,20 +626,20 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>2663</v>
@@ -661,15 +655,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" customWidth="1"/>
+    <col min="3" max="3" width="20.921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -680,114 +679,169 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>67850</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2">
+        <v>64448</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="2">
+        <v>50846</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
-        <v>67850</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="2">
+        <v>50100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>64448</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="2">
+        <v>48089</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
-        <v>50846</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="2">
+        <v>29639</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
-        <v>50100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="2">
+        <v>32672</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
-        <v>48089</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="2">
+        <v>27355</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>29639</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <v>32672</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
       <c r="B10" s="2">
-        <v>27355</v>
+        <v>25427</v>
       </c>
       <c r="C10" s="2">
-        <v>7358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2">
-        <v>25427</v>
-      </c>
-      <c r="C11" s="2">
         <v>7250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>13792</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13145</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12965</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11635</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5495</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5440</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -800,12 +854,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -816,9 +870,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>13792</v>
@@ -827,9 +881,9 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>13145</v>
@@ -838,9 +892,9 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>12965</v>
@@ -859,12 +913,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -875,9 +929,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>11635</v>
@@ -886,9 +940,9 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>5495</v>
@@ -897,9 +951,9 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>5440</v>
@@ -921,9 +975,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>2001</v>
       </c>
@@ -945,7 +999,7 @@
         <v>0.12021969223060491</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2002</v>
       </c>
@@ -956,7 +1010,7 @@
         <v>0.14044716108692351</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2003</v>
       </c>
@@ -967,7 +1021,7 @@
         <v>7.4309379949606749E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2004</v>
       </c>
@@ -978,7 +1032,7 @@
         <v>5.7531950540570469E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2005</v>
       </c>
@@ -989,7 +1043,7 @@
         <v>8.13198840544887E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>2006</v>
       </c>
@@ -1000,7 +1054,7 @@
         <v>7.5901660137397103E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2007</v>
       </c>
@@ -1011,7 +1065,7 @@
         <v>8.2265120236433564E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>2008</v>
       </c>
@@ -1022,7 +1076,7 @@
         <v>7.696766964692725E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>2009</v>
       </c>
@@ -1033,7 +1087,7 @@
         <v>8.2894702535185022E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>2010</v>
       </c>
@@ -1044,7 +1098,7 @@
         <v>7.2272212853012399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>2011</v>
       </c>
@@ -1055,7 +1109,7 @@
         <v>6.8971851866963571E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>2012</v>
       </c>
@@ -1066,7 +1120,7 @@
         <v>7.9424169371765066E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>2013</v>
       </c>
@@ -1077,7 +1131,7 @@
         <v>9.0388882680572033E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>2014</v>
       </c>
@@ -1088,7 +1142,7 @@
         <v>9.839512337775809E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>2015</v>
       </c>
@@ -1099,7 +1153,7 @@
         <v>9.7117769057492892E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>2016</v>
       </c>
@@ -1110,7 +1164,7 @@
         <v>8.496752375805193E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
@@ -1121,7 +1175,7 @@
         <v>0.12147944327610453</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>2018</v>
       </c>
@@ -1145,9 +1199,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -1169,7 +1223,7 @@
         <v>0.51543909806793076</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1180,7 +1234,7 @@
         <v>0.37456483940105334</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -1191,7 +1245,7 @@
         <v>0.32774878324537599</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -1202,7 +1256,7 @@
         <v>0.37088076065301046</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -1213,7 +1267,7 @@
         <v>0.2422661237711399</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -1224,7 +1278,7 @@
         <v>0.20636479701148855</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1235,7 +1289,7 @@
         <v>0.16353568709513025</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -1246,7 +1300,7 @@
         <v>0.16405415691921865</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1257,7 +1311,7 @@
         <v>0.15500575023604693</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -1268,7 +1322,7 @@
         <v>0.14587766840007105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -1279,7 +1333,7 @@
         <v>0.11496597056984645</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -1290,7 +1344,7 @@
         <v>0.11310114052931458</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -1301,7 +1355,7 @@
         <v>0.12052309848848451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -1312,7 +1366,7 @@
         <v>0.13481401914799282</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -1323,7 +1377,7 @@
         <v>0.16944787135110956</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -1334,7 +1388,7 @@
         <v>0.13755021357588584</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -1345,7 +1399,7 @@
         <v>0.17170530743926057</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2018</v>
       </c>

--- a/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
+++ b/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11777" windowHeight="4483" tabRatio="789" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11777" windowHeight="4483" tabRatio="789"/>
   </bookViews>
   <sheets>
     <sheet name="NorthAIC" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -104,9 +104,6 @@
     <t>\textbf{13921}</t>
   </si>
   <si>
-    <t>\extbf{16674}</t>
-  </si>
-  <si>
     <t>Filter to drifts within 43 m of a reef,97% quantile</t>
   </si>
   <si>
@@ -135,6 +132,12 @@
   </si>
   <si>
     <t>Filter to drifts with &gt;=20% groundfish and recheck reefs</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>\textbf{16674}</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -553,7 +556,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -628,18 +631,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>2663</v>
@@ -657,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -778,9 +781,20 @@
         <v>7250</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>13792</v>
@@ -791,7 +805,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>13145</v>
@@ -802,7 +816,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
         <v>12965</v>
@@ -811,9 +825,20 @@
         <v>5796</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>11635</v>
@@ -824,7 +849,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
         <v>5495</v>
@@ -835,7 +860,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>5440</v>
@@ -872,7 +897,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>13792</v>
@@ -883,7 +908,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>13145</v>
@@ -894,7 +919,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>12965</v>
@@ -931,7 +956,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2">
         <v>11635</v>
@@ -942,7 +967,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>5495</v>
@@ -953,7 +978,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>5440</v>

--- a/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
+++ b/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11777" windowHeight="4483" tabRatio="789"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11777" windowHeight="4483" tabRatio="789" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NorthAIC" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>\textbf{16674}</t>
+  </si>
+  <si>
+    <t>Filter to drifts within 43 m of a reef, 97% quantile</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -660,13 +663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.765625" customWidth="1"/>
+    <col min="1" max="1" width="48.765625" customWidth="1"/>
     <col min="2" max="2" width="18.3046875" customWidth="1"/>
     <col min="3" max="3" width="20.921875" customWidth="1"/>
   </cols>
@@ -805,7 +808,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
         <v>13145</v>

--- a/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
+++ b/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11777" windowHeight="4483" tabRatio="789" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11775" windowHeight="4485" tabRatio="789" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NorthAIC" sheetId="1" r:id="rId1"/>
@@ -77,12 +77,6 @@
     <t>Limit to reefs observering gopher/byel in at least 20 drifts</t>
   </si>
   <si>
-    <t>Limite to reefs sampled in at least 2/3 of all years</t>
-  </si>
-  <si>
-    <t>Limite to drifs within 1000 m of a reef</t>
-  </si>
-  <si>
     <t>Put depth in 10m depth bins, remove 0-9 and 60-69 m bins</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>Filter to drifts within 43 m of a reef, 97% quantile</t>
+  </si>
+  <si>
+    <t>Limit to reefs sampled in at least 2/3 of all years</t>
+  </si>
+  <si>
+    <t>Limit to drifs within 1000 m of a reef</t>
   </si>
 </sst>
 </file>
@@ -483,9 +483,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -507,9 +507,9 @@
         <v>17531</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>14120</v>
@@ -518,9 +518,9 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>13953</v>
@@ -529,9 +529,9 @@
         <v>17025</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>14126</v>
@@ -540,9 +540,9 @@
         <v>17293</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>13951</v>
@@ -551,15 +551,15 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -575,9 +575,9 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -599,9 +599,9 @@
         <v>5490</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2799</v>
@@ -610,9 +610,9 @@
         <v>5487</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>2744</v>
@@ -621,9 +621,9 @@
         <v>5159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>2653</v>
@@ -632,20 +632,20 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2663</v>
@@ -664,17 +664,17 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.765625" customWidth="1"/>
-    <col min="2" max="2" width="18.3046875" customWidth="1"/>
-    <col min="3" max="3" width="20.921875" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9317</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -707,7 +707,7 @@
         <v>9129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -718,7 +718,7 @@
         <v>8955</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -729,7 +729,7 @@
         <v>8903</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8774</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -751,9 +751,9 @@
         <v>8025</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>32672</v>
@@ -762,9 +762,9 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>27355</v>
@@ -773,9 +773,9 @@
         <v>7358</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>25427</v>
@@ -784,20 +784,20 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>13792</v>
@@ -806,9 +806,9 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>13145</v>
@@ -817,9 +817,9 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>12965</v>
@@ -828,20 +828,20 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>11635</v>
@@ -850,9 +850,9 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>5495</v>
@@ -861,9 +861,9 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>5440</v>
@@ -885,9 +885,9 @@
       <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -898,9 +898,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>13792</v>
@@ -909,9 +909,9 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>13145</v>
@@ -920,9 +920,9 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>12965</v>
@@ -944,9 +944,9 @@
       <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -957,9 +957,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>11635</v>
@@ -968,9 +968,9 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>5495</v>
@@ -979,9 +979,9 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>5440</v>
@@ -1003,9 +1003,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2001</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0.12021969223060491</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2002</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0.14044716108692351</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2003</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>7.4309379949606749E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2004</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>5.7531950540570469E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2005</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>8.13198840544887E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2006</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>7.5901660137397103E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2007</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>8.2265120236433564E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2008</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>7.696766964692725E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2009</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>8.2894702535185022E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2010</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>7.2272212853012399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2011</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>6.8971851866963571E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2012</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>7.9424169371765066E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2013</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>9.0388882680572033E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2014</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>9.839512337775809E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2015</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>9.7117769057492892E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2016</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>8.496752375805193E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.12147944327610453</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2018</v>
       </c>
@@ -1227,9 +1227,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.51543909806793076</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.37456483940105334</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>0.32774878324537599</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0.37088076065301046</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0.2422661237711399</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0.20636479701148855</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0.16353568709513025</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0.16405415691921865</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0.15500575023604693</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.14587766840007105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0.11496597056984645</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0.11310114052931458</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.12052309848848451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0.13481401914799282</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.16944787135110956</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0.13755021357588584</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0.17170530743926057</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>

--- a/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
+++ b/txt_files/Fleet6and7_OnboardObserver_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11775" windowHeight="4485" tabRatio="789" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11777" windowHeight="4483" tabRatio="789" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NorthAIC" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
     <t>Limit to reefs sampled in at least 2/3 of all years</t>
   </si>
   <si>
-    <t>Limit to drifs within 1000 m of a reef</t>
+    <t>Limit to drifts within 1000 m of a reef</t>
   </si>
 </sst>
 </file>
@@ -483,9 +483,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -507,7 +507,7 @@
         <v>17531</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -518,7 +518,7 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -529,7 +529,7 @@
         <v>17025</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -540,7 +540,7 @@
         <v>17293</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -551,7 +551,7 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -575,9 +575,9 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -599,7 +599,7 @@
         <v>5490</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -610,7 +610,7 @@
         <v>5487</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -621,7 +621,7 @@
         <v>5159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -632,7 +632,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -643,7 +643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -664,17 +664,17 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.69140625" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9317</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -707,7 +707,7 @@
         <v>9129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -718,7 +718,7 @@
         <v>8955</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -729,7 +729,7 @@
         <v>8903</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8774</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -751,7 +751,7 @@
         <v>8025</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -762,7 +762,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -773,7 +773,7 @@
         <v>7358</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -795,7 +795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -817,7 +817,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -828,7 +828,7 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -839,7 +839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -850,7 +850,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -861,7 +861,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -885,9 +885,9 @@
       <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -909,7 +909,7 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -920,7 +920,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -944,9 +944,9 @@
       <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1003,9 +1003,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>2001</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0.12021969223060491</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2002</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0.14044716108692351</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2003</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>7.4309379949606749E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2004</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>5.7531950540570469E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2005</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>8.13198840544887E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>2006</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>7.5901660137397103E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2007</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>8.2265120236433564E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>2008</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>7.696766964692725E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>2009</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>8.2894702535185022E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>2010</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>7.2272212853012399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>2011</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>6.8971851866963571E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>2012</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>7.9424169371765066E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>2013</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>9.0388882680572033E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>2014</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>9.839512337775809E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>2015</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>9.7117769057492892E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>2016</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>8.496752375805193E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.12147944327610453</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>2018</v>
       </c>
@@ -1227,9 +1227,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.51543909806793076</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.37456483940105334</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>0.32774878324537599</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0.37088076065301046</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0.2422661237711399</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0.20636479701148855</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0.16353568709513025</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0.16405415691921865</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0.15500575023604693</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.14587766840007105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0.11496597056984645</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0.11310114052931458</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.12052309848848451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0.13481401914799282</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.16944787135110956</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0.13755021357588584</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0.17170530743926057</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2018</v>
       </c>
